--- a/Tools/Data/2.ClassTable.xlsx
+++ b/Tools/Data/2.ClassTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSoultion\Game\YoLoV8-GameQA\Tools\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3E18AC-4848-40BF-B845-1CF21015CADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E971AFC0-6B89-4B02-BFCC-B2604351B42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7965" yWindow="2235" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3390" yWindow="1770" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>##var</t>
   </si>
@@ -434,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -504,6 +504,28 @@
       </c>
       <c r="D5" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>11002</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>11003</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
